--- a/ListasDatos/Sánchez Sánchez Miguel_2021.xlsx
+++ b/ListasDatos/Sánchez Sánchez Miguel_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="433">
   <si>
     <t>NC</t>
   </si>
@@ -350,7 +350,7 @@
     <t>2726892718</t>
   </si>
   <si>
-    <t>52272200000000000</t>
+    <t>5.22722e+16</t>
   </si>
   <si>
     <t>2727211100</t>
@@ -368,7 +368,7 @@
     <t>2721108745</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722111714</t>
@@ -443,7 +443,10 @@
     <t>jose_luisbr@hotmail.com</t>
   </si>
   <si>
-    <t>maberamirezramirez@gmail.com</t>
+    <t>Marchate1986@gmail.com</t>
+  </si>
+  <si>
+    <t>jdcastro@gmail.com</t>
   </si>
   <si>
     <t>luis.kaztello@gmail.com</t>
@@ -488,6 +491,9 @@
     <t>banda4203@hotmail.com</t>
   </si>
   <si>
+    <t>oficialsanchezmz@gmail.com</t>
+  </si>
+  <si>
     <t>fernandagonzales2267@gmail.com</t>
   </si>
   <si>
@@ -902,7 +908,7 @@
     <t>misaelxotlanihua@gmail.com</t>
   </si>
   <si>
-    <t>hersonlive@outlook.es</t>
+    <t>hersonxolio@gmail.com</t>
   </si>
   <si>
     <t>joeldeneyhernandez@gmail.com</t>
@@ -1115,6 +1121,9 @@
     <t>ANTONIO PACHECO APARICIO</t>
   </si>
   <si>
+    <t>BARSIMEO ISMAEL PAZ CESAR</t>
+  </si>
+  <si>
     <t>EDGAR ENRIQUE PATIÑO GARCÍA</t>
   </si>
   <si>
@@ -1145,6 +1154,9 @@
     <t>ISMAEL XOTLANIHUA REYES</t>
   </si>
   <si>
+    <t>ALVARO ELIAS XOLIO LINARES</t>
+  </si>
+  <si>
     <t>ELODIA XOTLANIHUA GUTIÉRREZ</t>
   </si>
   <si>
@@ -1247,7 +1259,7 @@
     <t>2721899640</t>
   </si>
   <si>
-    <t>52614500000000000</t>
+    <t>5.26145e+16</t>
   </si>
   <si>
     <t>2291159611</t>
@@ -1735,7 +1747,7 @@
         <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1763,6 +1775,9 @@
       <c r="H3" t="s">
         <v>121</v>
       </c>
+      <c r="I3" t="s">
+        <v>142</v>
+      </c>
       <c r="J3" t="s">
         <v>109</v>
       </c>
@@ -1793,10 +1808,10 @@
         <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1825,10 +1840,10 @@
         <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1857,10 +1872,10 @@
         <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1889,10 +1904,10 @@
         <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1921,10 +1936,10 @@
         <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1950,10 +1965,10 @@
         <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1982,10 +1997,10 @@
         <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2011,10 +2026,10 @@
         <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2040,10 +2055,10 @@
         <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2072,7 +2087,7 @@
         <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2101,10 +2116,10 @@
         <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2130,10 +2145,10 @@
         <v>133</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2162,10 +2177,10 @@
         <v>134</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2194,7 +2209,7 @@
         <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2223,10 +2238,10 @@
         <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2255,10 +2270,10 @@
         <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2286,8 +2301,11 @@
       <c r="H20" t="s">
         <v>138</v>
       </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2313,10 +2331,10 @@
         <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2404,31 +2422,31 @@
         <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="J2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2436,31 +2454,31 @@
         <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="J3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2468,31 +2486,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2500,28 +2518,28 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="J5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2529,28 +2547,25 @@
         <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J6" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2558,31 +2573,31 @@
         <v>19330051920316</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2596,25 +2611,25 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2622,28 +2637,28 @@
         <v>19330051920318</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2651,22 +2666,22 @@
         <v>19330051920319</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2674,28 +2689,28 @@
         <v>19330051920323</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J11" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2703,28 +2718,28 @@
         <v>19330051920441</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J12" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2735,28 +2750,28 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J13" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2767,28 +2782,28 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2799,28 +2814,28 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J15" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2828,31 +2843,31 @@
         <v>19330051920321</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I16" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J16" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2863,25 +2878,25 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I17" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J17" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2895,22 +2910,22 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H18" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J18" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2918,28 +2933,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H19" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I19" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="J19" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2953,25 +2968,25 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H20" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I20" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J20" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2979,28 +2994,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J21" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3008,31 +3023,31 @@
         <v>19330051920337</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G22" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H22" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I22" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J22" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3040,31 +3055,31 @@
         <v>19330051920338</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G23" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I23" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J23" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3072,25 +3087,25 @@
         <v>19330051920339</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J24" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3098,31 +3113,31 @@
         <v>19330051920340</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H25" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I25" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J25" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3130,31 +3145,31 @@
         <v>19330051920445</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H26" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I26" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J26" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3162,19 +3177,22 @@
         <v>19330051920342</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F27" t="s">
-        <v>322</v>
+        <v>324</v>
+      </c>
+      <c r="H27" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3182,31 +3200,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H28" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3217,25 +3235,25 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F29" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H29" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I29" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J29" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3243,31 +3261,31 @@
         <v>19330051920347</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H30" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3281,22 +3299,22 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J31" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3310,25 +3328,25 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F32" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H32" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I32" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J32" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3342,25 +3360,25 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G33" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H33" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I33" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J33" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3368,31 +3386,31 @@
         <v>19330051920350</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="I34" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J34" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3400,31 +3418,31 @@
         <v>19330051920351</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G35" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H35" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="I35" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J35" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3435,22 +3453,22 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H36" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J36" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3461,28 +3479,28 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G37" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H37" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I37" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J37" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3490,19 +3508,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="H38" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3516,25 +3537,25 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H39" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
